--- a/excelFiles/Payment-Report.xlsx
+++ b/excelFiles/Payment-Report.xlsx
@@ -353,22 +353,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>27/08/2018 07:08</v>
+        <v>03/09/2018 06:08</v>
       </c>
       <c r="C2" t="str">
-        <v>oğuz atay</v>
+        <v>cemal turkoglu</v>
       </c>
       <c r="D2">
-        <v>123</v>
+        <v>10.5</v>
       </c>
       <c r="E2" t="str">
-        <v>Bitti</v>
+        <v>Gecikmiş</v>
       </c>
       <c r="F2" t="str">
-        <v>aaa</v>
+        <v>Tahsilat</v>
       </c>
       <c r="G2" t="str">
-        <v>Ödeme</v>
+        <v>Tahsilat</v>
       </c>
     </row>
     <row r="3">
@@ -376,22 +376,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>01/09/2018 07:08</v>
+        <v>05/09/2018 06:08</v>
       </c>
       <c r="C3" t="str">
-        <v>cemal turkoglu</v>
+        <v>ege çetindağ</v>
       </c>
       <c r="D3">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="str">
-        <v>Bitti</v>
+        <v>Gecikmiş</v>
       </c>
       <c r="F3" t="str">
-        <v>ikinci taksit</v>
+        <v>Tahsilat</v>
       </c>
       <c r="G3" t="str">
-        <v>Ödeme</v>
+        <v>Tahsilat</v>
       </c>
     </row>
     <row r="4">
@@ -399,22 +399,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>03/09/2018 07:08</v>
+        <v>07/09/2018 06:01</v>
       </c>
       <c r="C4" t="str">
-        <v>cemal turkoglu</v>
+        <v>oğuz atay</v>
       </c>
       <c r="D4">
-        <v>10.5</v>
+        <v>123</v>
       </c>
       <c r="E4" t="str">
-        <v>Gecikmiş</v>
+        <v>Bitti</v>
       </c>
       <c r="F4" t="str">
-        <v>Tahsilat</v>
+        <v>aaa</v>
       </c>
       <c r="G4" t="str">
-        <v>Tahsilat</v>
+        <v>Ödeme</v>
       </c>
     </row>
     <row r="5">
@@ -422,13 +422,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>05/09/2018 07:08</v>
+        <v>07/09/2018 06:08</v>
       </c>
       <c r="C5" t="str">
-        <v>ege çetindağ</v>
+        <v>cemal turkoglu</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>120.5</v>
       </c>
       <c r="E5" t="str">
         <v>Gecikmiş</v>
@@ -445,22 +445,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>07/09/2018 07:01</v>
+        <v>08/09/2018 08:52</v>
       </c>
       <c r="C6" t="str">
-        <v>oğuz atay</v>
+        <v>Cemal Türkoğlu</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>200.25</v>
       </c>
       <c r="E6" t="str">
         <v>Bitti</v>
       </c>
       <c r="F6" t="str">
-        <v>aaa</v>
+        <v>elektrik faturası</v>
       </c>
       <c r="G6" t="str">
-        <v>Ödeme</v>
+        <v>Harcama</v>
       </c>
     </row>
     <row r="7">
@@ -468,22 +468,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>07/09/2018 07:08</v>
+        <v>09/09/2018 08:52</v>
       </c>
       <c r="C7" t="str">
-        <v>cemal turkoglu</v>
+        <v>Cemal Türkoğlu</v>
       </c>
       <c r="D7">
-        <v>120.5</v>
+        <v>100.25</v>
       </c>
       <c r="E7" t="str">
-        <v>Gecikmiş</v>
+        <v>Bitti</v>
       </c>
       <c r="F7" t="str">
-        <v>Tahsilat</v>
+        <v>elektrik faturası</v>
       </c>
       <c r="G7" t="str">
-        <v>Tahsilat</v>
+        <v>Harcama</v>
       </c>
     </row>
     <row r="8">
@@ -491,19 +491,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>08/09/2018 09:52</v>
+        <v>10/09/2018 08:52</v>
       </c>
       <c r="C8" t="str">
         <v>Cemal Türkoğlu</v>
       </c>
       <c r="D8">
-        <v>200.25</v>
+        <v>100</v>
       </c>
       <c r="E8" t="str">
         <v>Bitti</v>
       </c>
       <c r="F8" t="str">
-        <v>elektrik faturası</v>
+        <v>su faturası</v>
       </c>
       <c r="G8" t="str">
         <v>Harcama</v>
@@ -514,19 +514,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>09/09/2018 09:52</v>
+        <v>11/09/2018 08:52</v>
       </c>
       <c r="C9" t="str">
         <v>Cemal Türkoğlu</v>
       </c>
       <c r="D9">
-        <v>100.25</v>
+        <v>12.5</v>
       </c>
       <c r="E9" t="str">
         <v>Bitti</v>
       </c>
       <c r="F9" t="str">
-        <v>elektrik faturası</v>
+        <v>cam masrafı</v>
       </c>
       <c r="G9" t="str">
         <v>Harcama</v>
@@ -537,48 +537,39 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>10/09/2018 09:52</v>
+        <v>20/09/2018 04:52</v>
       </c>
       <c r="C10" t="str">
-        <v>Cemal Türkoğlu</v>
+        <v>oğuz atay</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10" t="str">
-        <v>Bitti</v>
+        <v>Bekliyor</v>
       </c>
       <c r="F10" t="str">
-        <v>su faturası</v>
+        <v>sigorta</v>
       </c>
       <c r="G10" t="str">
-        <v>Harcama</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <v>11/09/2018 09:52</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Cemal Türkoğlu</v>
-      </c>
-      <c r="D11">
-        <v>12.5</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Bitti</v>
-      </c>
-      <c r="F11" t="str">
-        <v>cam masrafı</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Harcama</v>
-      </c>
-    </row>
-    <row r="12"/>
+        <v>Ödeme</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Özet</v>
+      </c>
+      <c r="B12" t="str">
+        <v>-</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Harcamalar Toplamı</v>
+      </c>
+      <c r="D12">
+        <v>413</v>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" t="str">
         <v>Özet</v>
@@ -587,10 +578,10 @@
         <v>-</v>
       </c>
       <c r="C13" t="str">
-        <v>Harcamalar Toplamı</v>
+        <v>Ödemeler Toplamı</v>
       </c>
       <c r="D13">
-        <v>413</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -598,13 +589,13 @@
         <v>Özet</v>
       </c>
       <c r="B14" t="str">
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="C14" t="str">
-        <v>Ödemeler Toplamı</v>
+        <v>Tahsilat Toplamı</v>
       </c>
       <c r="D14">
-        <v>256.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -612,27 +603,13 @@
         <v>Özet</v>
       </c>
       <c r="B15" t="str">
-        <v>+</v>
+        <v>₺</v>
       </c>
       <c r="C15" t="str">
-        <v>Tahsilat Toplamı</v>
+        <v>Net Toplam</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Özet</v>
-      </c>
-      <c r="B16" t="str">
-        <v>₺</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Net Toplam</v>
-      </c>
-      <c r="D16">
-        <v>-669.5</v>
+        <v>-536</v>
       </c>
     </row>
   </sheetData>
